--- a/Basic information.xlsx
+++ b/Basic information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G014A1349\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G014A1349\Documents\team2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -171,6 +171,55 @@
   </si>
   <si>
     <t>Aviutl</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Git hub使用注意事項</t>
+    <rPh sb="7" eb="9">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①最初にプルを行います。プルを行うとデータを受け取ることができます。
+②データを送るときは、コミット→プッシュの順に行います
+③同じデータを極力いじらないように</t>
+    <rPh sb="1" eb="3">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>オク</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>ジュン</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>キョクリョク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -264,7 +313,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -274,6 +323,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -286,11 +341,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H23"/>
+  <dimension ref="B3:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -656,73 +714,115 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="E13" s="7" t="s">
+      <c r="C13" s="6"/>
+      <c r="E13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="E14" s="8" t="s">
+      <c r="C14" s="8"/>
+      <c r="E14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B17" s="8" t="s">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B19" s="7" t="s">
+      <c r="C17" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B20" s="8" t="s">
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="8"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B21" s="8" t="s">
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="8"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B22" s="8" t="s">
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="8"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
-      <c r="B23" s="8" t="s">
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B23" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="8"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B26" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="B25:H25"/>
+    <mergeCell ref="B26:H28"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>

--- a/Basic information.xlsx
+++ b/Basic information.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G014A1349\Documents\team2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\G014A1349\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>名前</t>
     <rPh sb="0" eb="2">
@@ -171,55 +171,6 @@
   </si>
   <si>
     <t>Aviutl</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Git hub使用注意事項</t>
-    <rPh sb="7" eb="9">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>チュウイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ジコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>①最初にプルを行います。プルを行うとデータを受け取ることができます。
-②データを送るときは、コミット→プッシュの順に行います
-③同じデータを極力いじらないように</t>
-    <rPh sb="1" eb="3">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>オク</t>
-    </rPh>
-    <rPh sb="56" eb="57">
-      <t>ジュン</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>オコナ</t>
-    </rPh>
-    <rPh sb="64" eb="65">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>キョクリョク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -313,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -323,32 +274,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:H28"/>
+  <dimension ref="B3:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:H28"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -714,115 +656,73 @@
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="E13" s="4" t="s">
+      <c r="C13" s="4"/>
+      <c r="E13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="E14" s="3" t="s">
+      <c r="C14" s="6"/>
+      <c r="E14" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B17" s="3" t="s">
+      <c r="C16" s="7"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B19" s="4" t="s">
+      <c r="C17" s="8"/>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B20" s="3" t="s">
+      <c r="C19" s="7"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B21" s="3" t="s">
+      <c r="C20" s="8"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B21" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B22" s="3" t="s">
+      <c r="C21" s="8"/>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B22" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B23" s="3" t="s">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.4">
+      <c r="B23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B25" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B26" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
+      <c r="C23" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B25:H25"/>
-    <mergeCell ref="B26:H28"/>
+  <mergeCells count="11">
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="E13:H13"/>
     <mergeCell ref="E14:H14"/>
